--- a/GL_nais_einheiten_unique_joined_mf_Version26112024.xlsx
+++ b/GL_nais_einheiten_unique_joined_mf_Version26112024.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frehnerm\Documents\excel\Aufträge\Sensi CH\Erledigt Abgabe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DC9AE-46D2-4C72-A624-45C5457F3C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B78DAB-8906-437E-89C3-7FF900C024F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GL" sheetId="1" r:id="rId1"/>
     <sheet name="Read me" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GL!$A$1:$N$920</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -4373,26 +4376,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N920"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="4"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="4"/>
+    <col min="2" max="2" width="9.68359375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5234375" customWidth="1"/>
+    <col min="5" max="5" width="9.89453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.109375" style="4"/>
-    <col min="11" max="11" width="14.109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.20703125" customWidth="1"/>
+    <col min="8" max="8" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1015625" style="4"/>
+    <col min="11" max="11" width="14.1015625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14.1015625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>774</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>732</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>71</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>242</v>
       </c>
@@ -4558,7 +4561,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>96</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>89</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>75</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>24</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>54</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>57</v>
       </c>
@@ -4814,7 +4817,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>40</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>80</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>674</v>
       </c>
@@ -4945,7 +4948,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>674</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>42</v>
       </c>
@@ -4997,7 +5000,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>11</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>44</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>9</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>37</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>20</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>232</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>33</v>
       </c>
@@ -5253,7 +5256,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <v>134</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <v>614</v>
       </c>
@@ -5317,7 +5320,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>490</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <v>49</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <v>49</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>488</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>491</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <v>90</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>466</v>
       </c>
@@ -5523,7 +5526,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <v>43</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <v>16</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <v>32</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <v>32</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
         <v>378</v>
       </c>
@@ -5706,7 +5709,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
         <v>243</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
         <v>45</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
         <v>97</v>
       </c>
@@ -5802,7 +5805,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
         <v>39</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
         <v>58</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
         <v>349</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
         <v>781</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3">
         <v>633</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3">
         <v>229</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
         <v>354</v>
       </c>
@@ -6014,7 +6017,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3">
         <v>495</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
         <v>645</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
         <v>369</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
         <v>632</v>
       </c>
@@ -6142,7 +6145,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
         <v>371</v>
       </c>
@@ -6174,7 +6177,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
         <v>512</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
         <v>634</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <v>637</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <v>640</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
         <v>440</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
         <v>196</v>
       </c>
@@ -6351,7 +6354,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
         <v>233</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
         <v>27</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
         <v>660</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
         <v>149</v>
       </c>
@@ -6467,7 +6470,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
         <v>659</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
         <v>216</v>
       </c>
@@ -6525,7 +6528,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3">
         <v>639</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
         <v>627</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
         <v>218</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
         <v>63</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
         <v>610</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
         <v>604</v>
       </c>
@@ -6702,7 +6705,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3">
         <v>65</v>
       </c>
@@ -6731,7 +6734,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3">
         <v>521</v>
       </c>
@@ -6760,7 +6763,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3">
         <v>518</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3">
         <v>638</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3">
         <v>492</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3">
         <v>368</v>
       </c>
@@ -6879,7 +6882,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3">
         <v>21</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3">
         <v>619</v>
       </c>
@@ -6940,7 +6943,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3">
         <v>636</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3">
         <v>372</v>
       </c>
@@ -7001,7 +7004,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
         <v>648</v>
       </c>
@@ -7033,7 +7036,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
         <v>366</v>
       </c>
@@ -7065,7 +7068,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
         <v>183</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
         <v>661</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
         <v>651</v>
       </c>
@@ -7155,7 +7158,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3">
         <v>188</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3">
         <v>184</v>
       </c>
@@ -7219,7 +7222,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3">
         <v>364</v>
       </c>
@@ -7251,7 +7254,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3">
         <v>652</v>
       </c>
@@ -7283,7 +7286,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3">
         <v>635</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3">
         <v>370</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3">
         <v>74</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3">
         <v>641</v>
       </c>
@@ -7411,7 +7414,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3">
         <v>190</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3">
         <v>356</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3">
         <v>185</v>
       </c>
@@ -7507,7 +7510,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3">
         <v>339</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3">
         <v>631</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3">
         <v>126</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3">
         <v>239</v>
       </c>
@@ -7626,7 +7629,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3">
         <v>200</v>
       </c>
@@ -7655,7 +7658,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3">
         <v>621</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3">
         <v>363</v>
       </c>
@@ -7713,7 +7716,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3">
         <v>358</v>
       </c>
@@ -7742,7 +7745,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3">
         <v>359</v>
       </c>
@@ -7771,7 +7774,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3">
         <v>642</v>
       </c>
@@ -7803,7 +7806,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3">
         <v>353</v>
       </c>
@@ -7832,7 +7835,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3">
         <v>72</v>
       </c>
@@ -7861,7 +7864,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3">
         <v>365</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3">
         <v>357</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3">
         <v>646</v>
       </c>
@@ -7951,7 +7954,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3">
         <v>657</v>
       </c>
@@ -7983,7 +7986,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3">
         <v>653</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3">
         <v>656</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -8079,7 +8082,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3">
         <v>649</v>
       </c>
@@ -8108,7 +8111,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3">
         <v>655</v>
       </c>
@@ -8140,7 +8143,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3">
         <v>129</v>
       </c>
@@ -8172,7 +8175,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3">
         <v>384</v>
       </c>
@@ -8204,7 +8207,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3">
         <v>650</v>
       </c>
@@ -8233,7 +8236,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3">
         <v>690</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3">
         <v>691</v>
       </c>
@@ -8291,7 +8294,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3">
         <v>663</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3">
         <v>212</v>
       </c>
@@ -8349,7 +8352,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3">
         <v>214</v>
       </c>
@@ -8381,7 +8384,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3">
         <v>577</v>
       </c>
@@ -8413,7 +8416,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3">
         <v>669</v>
       </c>
@@ -8445,7 +8448,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3">
         <v>284</v>
       </c>
@@ -8477,7 +8480,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3">
         <v>213</v>
       </c>
@@ -8509,7 +8512,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3">
         <v>809</v>
       </c>
@@ -8541,7 +8544,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3">
         <v>294</v>
       </c>
@@ -8573,7 +8576,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3">
         <v>439</v>
       </c>
@@ -8605,7 +8608,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3">
         <v>138</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="3">
         <v>662</v>
       </c>
@@ -8666,7 +8669,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="3">
         <v>828</v>
       </c>
@@ -8695,7 +8698,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3">
         <v>135</v>
       </c>
@@ -8727,7 +8730,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3">
         <v>301</v>
       </c>
@@ -8759,7 +8762,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3">
         <v>8</v>
       </c>
@@ -8791,7 +8794,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3">
         <v>299</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -8855,7 +8858,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3">
         <v>136</v>
       </c>
@@ -8887,7 +8890,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3">
         <v>481</v>
       </c>
@@ -8919,7 +8922,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3">
         <v>712</v>
       </c>
@@ -8951,7 +8954,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3">
         <v>241</v>
       </c>
@@ -8983,7 +8986,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3">
         <v>714</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3">
         <v>772</v>
       </c>
@@ -9047,7 +9050,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3">
         <v>263</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="3">
         <v>56</v>
       </c>
@@ -9105,7 +9108,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3">
         <v>478</v>
       </c>
@@ -9134,7 +9137,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="3">
         <v>623</v>
       </c>
@@ -9166,7 +9169,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="3">
         <v>710</v>
       </c>
@@ -9195,7 +9198,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="3">
         <v>860</v>
       </c>
@@ -9224,7 +9227,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="3">
         <v>825</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="3">
         <v>613</v>
       </c>
@@ -9282,7 +9285,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="3">
         <v>130</v>
       </c>
@@ -9311,7 +9314,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="3">
         <v>811</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="3">
         <v>73</v>
       </c>
@@ -9369,7 +9372,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="3">
         <v>81</v>
       </c>
@@ -9398,7 +9401,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="3">
         <v>520</v>
       </c>
@@ -9427,7 +9430,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="3">
         <v>575</v>
       </c>
@@ -9459,7 +9462,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="3">
         <v>830</v>
       </c>
@@ -9488,7 +9491,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="3">
         <v>587</v>
       </c>
@@ -9517,7 +9520,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="3">
         <v>275</v>
       </c>
@@ -9546,7 +9549,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="3">
         <v>296</v>
       </c>
@@ -9575,7 +9578,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="3">
         <v>602</v>
       </c>
@@ -9607,7 +9610,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="3">
         <v>703</v>
       </c>
@@ -9639,7 +9642,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="3">
         <v>182</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="3">
         <v>118</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="3">
         <v>706</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="3">
         <v>157</v>
       </c>
@@ -9784,7 +9787,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="3">
         <v>675</v>
       </c>
@@ -9813,7 +9816,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="3">
         <v>156</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="3">
         <v>771</v>
       </c>
@@ -9871,7 +9874,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="3">
         <v>167</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="3">
         <v>522</v>
       </c>
@@ -9929,7 +9932,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="3">
         <v>670</v>
       </c>
@@ -9958,7 +9961,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="3">
         <v>579</v>
       </c>
@@ -9990,7 +9993,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="3">
         <v>332</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="3">
         <v>704</v>
       </c>
@@ -10054,7 +10057,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="3">
         <v>287</v>
       </c>
@@ -10086,7 +10089,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="3">
         <v>70</v>
       </c>
@@ -10118,7 +10121,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="3">
         <v>711</v>
       </c>
@@ -10147,7 +10150,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="3">
         <v>854</v>
       </c>
@@ -10176,7 +10179,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="3">
         <v>570</v>
       </c>
@@ -10205,7 +10208,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="3">
         <v>530</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="3">
         <v>717</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="3">
         <v>25</v>
       </c>
@@ -10298,7 +10301,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="3">
         <v>775</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="3">
         <v>647</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="3">
         <v>694</v>
       </c>
@@ -10391,7 +10394,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="3">
         <v>144</v>
       </c>
@@ -10420,7 +10423,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="3">
         <v>692</v>
       </c>
@@ -10449,7 +10452,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="3">
         <v>853</v>
       </c>
@@ -10478,7 +10481,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="3">
         <v>702</v>
       </c>
@@ -10507,7 +10510,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="3">
         <v>514</v>
       </c>
@@ -10536,7 +10539,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="3">
         <v>862</v>
       </c>
@@ -10565,7 +10568,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="3">
         <v>693</v>
       </c>
@@ -10594,7 +10597,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="3">
         <v>654</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="3">
         <v>502</v>
       </c>
@@ -10652,7 +10655,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="3">
         <v>852</v>
       </c>
@@ -10681,7 +10684,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="3">
         <v>47</v>
       </c>
@@ -10713,7 +10716,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="3">
         <v>603</v>
       </c>
@@ -10745,7 +10748,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="3">
         <v>673</v>
       </c>
@@ -10777,7 +10780,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="3">
         <v>697</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="3">
         <v>416</v>
       </c>
@@ -10841,7 +10844,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="3">
         <v>205</v>
       </c>
@@ -10870,7 +10873,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="3">
         <v>683</v>
       </c>
@@ -10899,7 +10902,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="3">
         <v>593</v>
       </c>
@@ -10928,7 +10931,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="3">
         <v>685</v>
       </c>
@@ -10957,7 +10960,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="3">
         <v>855</v>
       </c>
@@ -10986,7 +10989,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="3">
         <v>696</v>
       </c>
@@ -11015,7 +11018,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="3">
         <v>700</v>
       </c>
@@ -11044,7 +11047,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="3">
         <v>698</v>
       </c>
@@ -11073,7 +11076,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="3">
         <v>298</v>
       </c>
@@ -11102,7 +11105,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="3">
         <v>856</v>
       </c>
@@ -11131,7 +11134,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="3">
         <v>31</v>
       </c>
@@ -11163,7 +11166,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="3">
         <v>796</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="3">
         <v>695</v>
       </c>
@@ -11224,7 +11227,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="3">
         <v>95</v>
       </c>
@@ -11253,7 +11256,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="3">
         <v>224</v>
       </c>
@@ -11285,7 +11288,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="3">
         <v>664</v>
       </c>
@@ -11314,7 +11317,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="3">
         <v>686</v>
       </c>
@@ -11343,7 +11346,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="3">
         <v>786</v>
       </c>
@@ -11372,7 +11375,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="3">
         <v>508</v>
       </c>
@@ -11401,7 +11404,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="3">
         <v>304</v>
       </c>
@@ -11433,7 +11436,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="3">
         <v>17</v>
       </c>
@@ -11465,7 +11468,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="3">
         <v>248</v>
       </c>
@@ -11497,7 +11500,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="3">
         <v>586</v>
       </c>
@@ -11529,7 +11532,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="3">
         <v>858</v>
       </c>
@@ -11561,7 +11564,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="3">
         <v>688</v>
       </c>
@@ -11593,7 +11596,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="3">
         <v>247</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="3">
         <v>574</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="3">
         <v>857</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="3">
         <v>262</v>
       </c>
@@ -11709,7 +11712,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="3">
         <v>246</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="3">
         <v>496</v>
       </c>
@@ -11767,7 +11770,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="3">
         <v>150</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="3">
         <v>565</v>
       </c>
@@ -11825,7 +11828,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="3">
         <v>201</v>
       </c>
@@ -11854,7 +11857,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="3">
         <v>689</v>
       </c>
@@ -11883,7 +11886,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="3">
         <v>564</v>
       </c>
@@ -11912,7 +11915,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="3">
         <v>230</v>
       </c>
@@ -11941,7 +11944,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="3">
         <v>810</v>
       </c>
@@ -11970,7 +11973,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="3">
         <v>13</v>
       </c>
@@ -12002,7 +12005,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="3">
         <v>392</v>
       </c>
@@ -12034,7 +12037,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="3">
         <v>701</v>
       </c>
@@ -12066,7 +12069,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="3">
         <v>658</v>
       </c>
@@ -12095,7 +12098,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="3">
         <v>111</v>
       </c>
@@ -12127,7 +12130,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="3">
         <v>244</v>
       </c>
@@ -12159,7 +12162,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="3">
         <v>132</v>
       </c>
@@ -12191,7 +12194,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="3">
         <v>671</v>
       </c>
@@ -12223,7 +12226,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="3">
         <v>668</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="3">
         <v>665</v>
       </c>
@@ -12287,7 +12290,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="3">
         <v>446</v>
       </c>
@@ -12319,7 +12322,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="3">
         <v>719</v>
       </c>
@@ -12348,7 +12351,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="3">
         <v>288</v>
       </c>
@@ -12377,7 +12380,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="3">
         <v>257</v>
       </c>
@@ -12409,7 +12412,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="3">
         <v>79</v>
       </c>
@@ -12438,7 +12441,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="3">
         <v>226</v>
       </c>
@@ -12470,7 +12473,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="3">
         <v>265</v>
       </c>
@@ -12502,7 +12505,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="3">
         <v>198</v>
       </c>
@@ -12534,7 +12537,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="3">
         <v>203</v>
       </c>
@@ -12566,7 +12569,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="3">
         <v>387</v>
       </c>
@@ -12598,7 +12601,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="3">
         <v>77</v>
       </c>
@@ -12627,7 +12630,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="3">
         <v>452</v>
       </c>
@@ -12659,7 +12662,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="3">
         <v>594</v>
       </c>
@@ -12688,7 +12691,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="3">
         <v>687</v>
       </c>
@@ -12717,7 +12720,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="3">
         <v>330</v>
       </c>
@@ -12746,7 +12749,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="3">
         <v>618</v>
       </c>
@@ -12775,7 +12778,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="3">
         <v>709</v>
       </c>
@@ -12804,7 +12807,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="3">
         <v>297</v>
       </c>
@@ -12833,7 +12836,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="3">
         <v>186</v>
       </c>
@@ -12862,7 +12865,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="3">
         <v>238</v>
       </c>
@@ -12891,7 +12894,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="3">
         <v>589</v>
       </c>
@@ -12920,7 +12923,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="3">
         <v>360</v>
       </c>
@@ -12949,7 +12952,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="3">
         <v>553</v>
       </c>
@@ -12978,7 +12981,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="3">
         <v>681</v>
       </c>
@@ -13007,7 +13010,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="3">
         <v>526</v>
       </c>
@@ -13036,7 +13039,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="3">
         <v>445</v>
       </c>
@@ -13065,7 +13068,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="3">
         <v>679</v>
       </c>
@@ -13094,7 +13097,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="3">
         <v>291</v>
       </c>
@@ -13123,7 +13126,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="3">
         <v>680</v>
       </c>
@@ -13152,7 +13155,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="3">
         <v>108</v>
       </c>
@@ -13181,7 +13184,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="3">
         <v>723</v>
       </c>
@@ -13210,7 +13213,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="3">
         <v>708</v>
       </c>
@@ -13239,7 +13242,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="3">
         <v>682</v>
       </c>
@@ -13268,7 +13271,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="3">
         <v>667</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="3">
         <v>699</v>
       </c>
@@ -13323,7 +13326,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="3">
         <v>467</v>
       </c>
@@ -13352,7 +13355,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="3">
         <v>797</v>
       </c>
@@ -13381,7 +13384,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="3">
         <v>308</v>
       </c>
@@ -13410,7 +13413,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="3">
         <v>391</v>
       </c>
@@ -13439,7 +13442,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="3">
         <v>162</v>
       </c>
@@ -13468,7 +13471,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="3">
         <v>566</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="3">
         <v>837</v>
       </c>
@@ -13532,7 +13535,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="3">
         <v>544</v>
       </c>
@@ -13564,7 +13567,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="3">
         <v>449</v>
       </c>
@@ -13596,7 +13599,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="3">
         <v>463</v>
       </c>
@@ -13625,7 +13628,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="3">
         <v>76</v>
       </c>
@@ -13654,7 +13657,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="3">
         <v>588</v>
       </c>
@@ -13683,7 +13686,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="3">
         <v>109</v>
       </c>
@@ -13712,7 +13715,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="3">
         <v>475</v>
       </c>
@@ -13741,7 +13744,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="3">
         <v>749</v>
       </c>
@@ -13773,7 +13776,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="3">
         <v>746</v>
       </c>
@@ -13805,7 +13808,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="3">
         <v>778</v>
       </c>
@@ -13834,7 +13837,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="3">
         <v>582</v>
       </c>
@@ -13863,7 +13866,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="3">
         <v>345</v>
       </c>
@@ -13892,7 +13895,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="3">
         <v>346</v>
       </c>
@@ -13921,7 +13924,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="3">
         <v>628</v>
       </c>
@@ -13950,7 +13953,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="3">
         <v>124</v>
       </c>
@@ -13979,7 +13982,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="3">
         <v>347</v>
       </c>
@@ -14008,7 +14011,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="3">
         <v>752</v>
       </c>
@@ -14037,7 +14040,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="3">
         <v>400</v>
       </c>
@@ -14066,7 +14069,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="3">
         <v>721</v>
       </c>
@@ -14095,7 +14098,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="3">
         <v>464</v>
       </c>
@@ -14124,7 +14127,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="3">
         <v>549</v>
       </c>
@@ -14153,7 +14156,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="3">
         <v>211</v>
       </c>
@@ -14182,7 +14185,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="3">
         <v>381</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="3">
         <v>264</v>
       </c>
@@ -14240,7 +14243,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="3">
         <v>334</v>
       </c>
@@ -14269,7 +14272,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="3">
         <v>461</v>
       </c>
@@ -14298,7 +14301,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="3">
         <v>836</v>
       </c>
@@ -14327,7 +14330,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="3">
         <v>428</v>
       </c>
@@ -14356,7 +14359,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="3">
         <v>793</v>
       </c>
@@ -14388,7 +14391,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="3">
         <v>344</v>
       </c>
@@ -14420,7 +14423,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="3">
         <v>733</v>
       </c>
@@ -14452,7 +14455,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="3">
         <v>240</v>
       </c>
@@ -14484,7 +14487,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="3">
         <v>397</v>
       </c>
@@ -14516,7 +14519,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="3">
         <v>758</v>
       </c>
@@ -14548,7 +14551,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="3">
         <v>161</v>
       </c>
@@ -14580,7 +14583,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="3">
         <v>333</v>
       </c>
@@ -14612,7 +14615,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="3">
         <v>745</v>
       </c>
@@ -14644,7 +14647,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="3">
         <v>600</v>
       </c>
@@ -14676,7 +14679,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="3">
         <v>140</v>
       </c>
@@ -14708,7 +14711,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="3">
         <v>41</v>
       </c>
@@ -14740,7 +14743,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="3">
         <v>716</v>
       </c>
@@ -14769,7 +14772,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="3">
         <v>722</v>
       </c>
@@ -14798,7 +14801,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="3">
         <v>788</v>
       </c>
@@ -14827,7 +14830,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="3">
         <v>202</v>
       </c>
@@ -14856,7 +14859,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="3">
         <v>789</v>
       </c>
@@ -14885,7 +14888,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="3">
         <v>189</v>
       </c>
@@ -14917,7 +14920,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="3">
         <v>581</v>
       </c>
@@ -14946,7 +14949,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="3">
         <v>753</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="3">
         <v>377</v>
       </c>
@@ -15004,7 +15007,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="3">
         <v>743</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="3">
         <v>595</v>
       </c>
@@ -15068,7 +15071,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="3">
         <v>367</v>
       </c>
@@ -15097,7 +15100,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="3">
         <v>725</v>
       </c>
@@ -15126,7 +15129,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="3">
         <v>770</v>
       </c>
@@ -15155,7 +15158,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="3">
         <v>231</v>
       </c>
@@ -15184,7 +15187,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="3">
         <v>312</v>
       </c>
@@ -15213,7 +15216,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="3">
         <v>249</v>
       </c>
@@ -15242,7 +15245,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="3">
         <v>792</v>
       </c>
@@ -15271,7 +15274,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="3">
         <v>444</v>
       </c>
@@ -15300,7 +15303,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="3">
         <v>571</v>
       </c>
@@ -15329,7 +15332,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="3">
         <v>101</v>
       </c>
@@ -15358,7 +15361,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="3">
         <v>362</v>
       </c>
@@ -15387,7 +15390,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="3">
         <v>501</v>
       </c>
@@ -15416,7 +15419,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="3">
         <v>313</v>
       </c>
@@ -15445,7 +15448,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="3">
         <v>78</v>
       </c>
@@ -15474,7 +15477,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="3">
         <v>91</v>
       </c>
@@ -15503,7 +15506,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="3">
         <v>355</v>
       </c>
@@ -15526,7 +15529,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="3">
         <v>861</v>
       </c>
@@ -15549,7 +15552,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="3">
         <v>133</v>
       </c>
@@ -15581,7 +15584,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="3">
         <v>849</v>
       </c>
@@ -15610,7 +15613,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="3">
         <v>761</v>
       </c>
@@ -15639,7 +15642,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="3">
         <v>850</v>
       </c>
@@ -15668,7 +15671,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="3">
         <v>290</v>
       </c>
@@ -15697,7 +15700,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="3">
         <v>152</v>
       </c>
@@ -15729,7 +15732,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="3">
         <v>763</v>
       </c>
@@ -15761,7 +15764,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="3">
         <v>274</v>
       </c>
@@ -15793,7 +15796,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="3">
         <v>769</v>
       </c>
@@ -15825,7 +15828,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="3">
         <v>677</v>
       </c>
@@ -15857,7 +15860,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="3">
         <v>361</v>
       </c>
@@ -15889,7 +15892,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="3">
         <v>173</v>
       </c>
@@ -15918,7 +15921,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="3">
         <v>48</v>
       </c>
@@ -15947,7 +15950,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="3">
         <v>787</v>
       </c>
@@ -15976,7 +15979,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="3">
         <v>560</v>
       </c>
@@ -16005,7 +16008,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="3">
         <v>176</v>
       </c>
@@ -16034,7 +16037,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="3">
         <v>799</v>
       </c>
@@ -16063,7 +16066,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="3">
         <v>576</v>
       </c>
@@ -16092,7 +16095,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="3">
         <v>465</v>
       </c>
@@ -16121,7 +16124,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="3">
         <v>379</v>
       </c>
@@ -16150,7 +16153,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="3">
         <v>534</v>
       </c>
@@ -16179,7 +16182,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="3">
         <v>219</v>
       </c>
@@ -16211,7 +16214,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="3">
         <v>396</v>
       </c>
@@ -16243,7 +16246,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="3">
         <v>154</v>
       </c>
@@ -16275,7 +16278,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="3">
         <v>423</v>
       </c>
@@ -16307,7 +16310,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="3">
         <v>527</v>
       </c>
@@ -16339,7 +16342,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="3">
         <v>174</v>
       </c>
@@ -16371,7 +16374,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="3">
         <v>222</v>
       </c>
@@ -16403,7 +16406,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="3">
         <v>509</v>
       </c>
@@ -16432,7 +16435,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="3">
         <v>86</v>
       </c>
@@ -16464,7 +16467,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="3">
         <v>204</v>
       </c>
@@ -16496,7 +16499,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="3">
         <v>751</v>
       </c>
@@ -16528,7 +16531,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="3">
         <v>724</v>
       </c>
@@ -16560,7 +16563,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="3">
         <v>448</v>
       </c>
@@ -16589,7 +16592,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="3">
         <v>271</v>
       </c>
@@ -16618,7 +16621,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="3">
         <v>765</v>
       </c>
@@ -16647,7 +16650,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="3">
         <v>64</v>
       </c>
@@ -16676,7 +16679,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="3">
         <v>311</v>
       </c>
@@ -16708,7 +16711,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="3">
         <v>311</v>
       </c>
@@ -16728,7 +16731,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="3">
         <v>309</v>
       </c>
@@ -16760,7 +16763,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="3">
         <v>309</v>
       </c>
@@ -16780,7 +16783,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="3">
         <v>325</v>
       </c>
@@ -16809,7 +16812,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="3">
         <v>776</v>
       </c>
@@ -16832,7 +16835,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="3">
         <v>82</v>
       </c>
@@ -16864,7 +16867,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="3">
         <v>324</v>
       </c>
@@ -16896,7 +16899,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="3">
         <v>727</v>
       </c>
@@ -16919,7 +16922,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="3">
         <v>606</v>
       </c>
@@ -16951,7 +16954,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="3">
         <v>644</v>
       </c>
@@ -16983,7 +16986,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="3">
         <v>731</v>
       </c>
@@ -17015,7 +17018,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="3">
         <v>643</v>
       </c>
@@ -17044,7 +17047,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="3">
         <v>744</v>
       </c>
@@ -17073,7 +17076,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="3">
         <v>741</v>
       </c>
@@ -17102,7 +17105,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="3">
         <v>750</v>
       </c>
@@ -17131,7 +17134,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="3">
         <v>756</v>
       </c>
@@ -17160,7 +17163,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="3">
         <v>93</v>
       </c>
@@ -17192,7 +17195,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="3">
         <v>513</v>
       </c>
@@ -17221,7 +17224,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="3">
         <v>281</v>
       </c>
@@ -17250,7 +17253,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="3">
         <v>817</v>
       </c>
@@ -17282,7 +17285,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="3">
         <v>94</v>
       </c>
@@ -17314,7 +17317,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="3">
         <v>773</v>
       </c>
@@ -17343,7 +17346,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="3">
         <v>516</v>
       </c>
@@ -17375,7 +17378,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="3">
         <v>779</v>
       </c>
@@ -17404,7 +17407,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="3">
         <v>320</v>
       </c>
@@ -17433,7 +17436,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="3">
         <v>85</v>
       </c>
@@ -17462,7 +17465,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="3">
         <v>805</v>
       </c>
@@ -17491,7 +17494,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="3">
         <v>807</v>
       </c>
@@ -17520,7 +17523,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="3">
         <v>113</v>
       </c>
@@ -17549,7 +17552,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="3">
         <v>808</v>
       </c>
@@ -17578,7 +17581,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="3">
         <v>818</v>
       </c>
@@ -17607,7 +17610,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="3">
         <v>193</v>
       </c>
@@ -17636,7 +17639,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="3">
         <v>678</v>
       </c>
@@ -17665,7 +17668,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="3">
         <v>672</v>
       </c>
@@ -17694,7 +17697,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="3">
         <v>795</v>
       </c>
@@ -17723,7 +17726,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="3">
         <v>148</v>
       </c>
@@ -17752,7 +17755,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="3">
         <v>459</v>
       </c>
@@ -17781,7 +17784,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="3">
         <v>559</v>
       </c>
@@ -17813,7 +17816,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="3">
         <v>777</v>
       </c>
@@ -17845,7 +17848,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="3">
         <v>327</v>
       </c>
@@ -17877,7 +17880,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="3">
         <v>517</v>
       </c>
@@ -17909,7 +17912,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="3">
         <v>310</v>
       </c>
@@ -17941,7 +17944,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="3">
         <v>180</v>
       </c>
@@ -17973,7 +17976,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="3">
         <v>314</v>
       </c>
@@ -18002,7 +18005,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="3">
         <v>53</v>
       </c>
@@ -18034,7 +18037,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="3">
         <v>170</v>
       </c>
@@ -18063,7 +18066,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="3">
         <v>507</v>
       </c>
@@ -18095,7 +18098,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="3">
         <v>245</v>
       </c>
@@ -18127,7 +18130,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="3">
         <v>742</v>
       </c>
@@ -18159,7 +18162,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="3">
         <v>599</v>
       </c>
@@ -18191,7 +18194,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="3">
         <v>622</v>
       </c>
@@ -18223,7 +18226,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="3">
         <v>35</v>
       </c>
@@ -18255,7 +18258,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="3">
         <v>580</v>
       </c>
@@ -18284,7 +18287,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="3">
         <v>123</v>
       </c>
@@ -18316,7 +18319,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="3">
         <v>331</v>
       </c>
@@ -18345,7 +18348,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="3">
         <v>730</v>
       </c>
@@ -18374,7 +18377,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="3">
         <v>260</v>
       </c>
@@ -18406,7 +18409,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="3">
         <v>131</v>
       </c>
@@ -18438,7 +18441,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="3">
         <v>326</v>
       </c>
@@ -18470,7 +18473,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="3">
         <v>785</v>
       </c>
@@ -18502,7 +18505,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="3">
         <v>1</v>
       </c>
@@ -18534,7 +18537,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="3">
         <v>827</v>
       </c>
@@ -18563,7 +18566,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="3">
         <v>676</v>
       </c>
@@ -18592,7 +18595,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="3">
         <v>728</v>
       </c>
@@ -18621,7 +18624,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="3">
         <v>18</v>
       </c>
@@ -18653,7 +18656,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="3">
         <v>726</v>
       </c>
@@ -18685,7 +18688,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="3">
         <v>107</v>
       </c>
@@ -18717,7 +18720,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="3">
         <v>819</v>
       </c>
@@ -18746,7 +18749,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="3">
         <v>348</v>
       </c>
@@ -18775,7 +18778,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="3">
         <v>272</v>
       </c>
@@ -18807,7 +18810,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="3">
         <v>759</v>
       </c>
@@ -18839,7 +18842,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="3">
         <v>207</v>
       </c>
@@ -18871,7 +18874,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="3">
         <v>747</v>
       </c>
@@ -18903,7 +18906,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="3">
         <v>755</v>
       </c>
@@ -18935,7 +18938,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="3">
         <v>767</v>
       </c>
@@ -18964,7 +18967,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="3">
         <v>624</v>
       </c>
@@ -18993,7 +18996,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="3">
         <v>630</v>
       </c>
@@ -19016,7 +19019,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="3">
         <v>824</v>
       </c>
@@ -19048,7 +19051,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="3">
         <v>815</v>
       </c>
@@ -19077,7 +19080,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="3">
         <v>611</v>
       </c>
@@ -19106,7 +19109,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="3">
         <v>399</v>
       </c>
@@ -19135,7 +19138,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="3">
         <v>419</v>
       </c>
@@ -19164,7 +19167,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="3">
         <v>848</v>
       </c>
@@ -19193,7 +19196,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="3">
         <v>398</v>
       </c>
@@ -19225,7 +19228,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="3">
         <v>816</v>
       </c>
@@ -19257,7 +19260,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="3">
         <v>250</v>
       </c>
@@ -19289,7 +19292,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="3">
         <v>323</v>
       </c>
@@ -19321,7 +19324,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="3">
         <v>833</v>
       </c>
@@ -19353,7 +19356,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="3">
         <v>223</v>
       </c>
@@ -19385,7 +19388,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="3">
         <v>252</v>
       </c>
@@ -19417,7 +19420,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="3">
         <v>375</v>
       </c>
@@ -19449,7 +19452,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="3">
         <v>510</v>
       </c>
@@ -19478,7 +19481,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="3">
         <v>316</v>
       </c>
@@ -19507,7 +19510,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="3">
         <v>832</v>
       </c>
@@ -19536,7 +19539,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="3">
         <v>321</v>
       </c>
@@ -19565,7 +19568,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="3">
         <v>813</v>
       </c>
@@ -19594,7 +19597,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="3">
         <v>104</v>
       </c>
@@ -19623,7 +19626,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="3">
         <v>531</v>
       </c>
@@ -19652,7 +19655,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="3">
         <v>556</v>
       </c>
@@ -19681,7 +19684,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="3">
         <v>814</v>
       </c>
@@ -19710,7 +19713,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="3">
         <v>137</v>
       </c>
@@ -19742,7 +19745,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="3">
         <v>178</v>
       </c>
@@ -19774,7 +19777,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="3">
         <v>210</v>
       </c>
@@ -19797,7 +19800,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="3">
         <v>842</v>
       </c>
@@ -19820,7 +19823,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="3">
         <v>15</v>
       </c>
@@ -19852,7 +19855,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="3">
         <v>50</v>
       </c>
@@ -19884,7 +19887,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="3">
         <v>114</v>
       </c>
@@ -19913,7 +19916,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="3">
         <v>834</v>
       </c>
@@ -19945,7 +19948,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="3">
         <v>499</v>
       </c>
@@ -19974,7 +19977,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="3">
         <v>142</v>
       </c>
@@ -20003,7 +20006,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="3">
         <v>141</v>
       </c>
@@ -20032,7 +20035,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="3">
         <v>841</v>
       </c>
@@ -20061,7 +20064,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="3">
         <v>62</v>
       </c>
@@ -20084,7 +20087,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="3">
         <v>835</v>
       </c>
@@ -20107,7 +20110,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="3">
         <v>812</v>
       </c>
@@ -20139,7 +20142,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="3">
         <v>165</v>
       </c>
@@ -20171,7 +20174,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="3">
         <v>374</v>
       </c>
@@ -20206,7 +20209,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="3">
         <v>374</v>
       </c>
@@ -20226,7 +20229,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="3">
         <v>206</v>
       </c>
@@ -20255,7 +20258,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="3">
         <v>195</v>
       </c>
@@ -20284,7 +20287,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="3">
         <v>258</v>
       </c>
@@ -20316,7 +20319,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="3">
         <v>5</v>
       </c>
@@ -20348,7 +20351,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="3">
         <v>489</v>
       </c>
@@ -20377,7 +20380,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="3">
         <v>87</v>
       </c>
@@ -20406,7 +20409,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="3">
         <v>479</v>
       </c>
@@ -20435,7 +20438,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="3">
         <v>139</v>
       </c>
@@ -20464,7 +20467,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="3">
         <v>485</v>
       </c>
@@ -20493,7 +20496,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="3">
         <v>52</v>
       </c>
@@ -20525,7 +20528,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="3">
         <v>547</v>
       </c>
@@ -20554,7 +20557,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="3">
         <v>457</v>
       </c>
@@ -20577,7 +20580,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="3">
         <v>60</v>
       </c>
@@ -20609,7 +20612,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="3">
         <v>511</v>
       </c>
@@ -20641,7 +20644,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="3">
         <v>844</v>
       </c>
@@ -20670,7 +20673,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="3">
         <v>255</v>
       </c>
@@ -20699,7 +20702,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="3">
         <v>23</v>
       </c>
@@ -20731,7 +20734,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="3">
         <v>253</v>
       </c>
@@ -20763,7 +20766,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="3">
         <v>105</v>
       </c>
@@ -20795,7 +20798,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="3">
         <v>228</v>
       </c>
@@ -20824,7 +20827,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="3">
         <v>537</v>
       </c>
@@ -20853,7 +20856,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="3">
         <v>453</v>
       </c>
@@ -20882,7 +20885,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="3">
         <v>458</v>
       </c>
@@ -20911,7 +20914,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="3">
         <v>276</v>
       </c>
@@ -20940,7 +20943,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="3">
         <v>406</v>
       </c>
@@ -20969,7 +20972,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="3">
         <v>794</v>
       </c>
@@ -20998,7 +21001,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="3">
         <v>404</v>
       </c>
@@ -21027,7 +21030,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="3">
         <v>421</v>
       </c>
@@ -21056,7 +21059,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="3">
         <v>535</v>
       </c>
@@ -21085,7 +21088,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="3">
         <v>542</v>
       </c>
@@ -21114,7 +21117,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="3">
         <v>145</v>
       </c>
@@ -21143,7 +21146,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="3">
         <v>306</v>
       </c>
@@ -21175,7 +21178,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="3">
         <v>401</v>
       </c>
@@ -21207,7 +21210,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="3">
         <v>405</v>
       </c>
@@ -21239,7 +21242,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="3">
         <v>46</v>
       </c>
@@ -21271,7 +21274,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="3">
         <v>403</v>
       </c>
@@ -21303,7 +21306,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="3">
         <v>305</v>
       </c>
@@ -21335,7 +21338,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="3">
         <v>236</v>
       </c>
@@ -21364,7 +21367,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="3">
         <v>462</v>
       </c>
@@ -21393,7 +21396,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="3">
         <v>269</v>
       </c>
@@ -21422,7 +21425,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="3">
         <v>800</v>
       </c>
@@ -21451,7 +21454,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="3">
         <v>460</v>
       </c>
@@ -21480,7 +21483,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="3">
         <v>197</v>
       </c>
@@ -21512,7 +21515,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="3">
         <v>92</v>
       </c>
@@ -21544,7 +21547,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="3">
         <v>539</v>
       </c>
@@ -21573,7 +21576,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="3">
         <v>402</v>
       </c>
@@ -21605,7 +21608,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="3">
         <v>437</v>
       </c>
@@ -21634,7 +21637,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="3">
         <v>215</v>
       </c>
@@ -21663,7 +21666,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="3">
         <v>456</v>
       </c>
@@ -21692,7 +21695,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="3">
         <v>551</v>
       </c>
@@ -21721,7 +21724,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="3">
         <v>545</v>
       </c>
@@ -21750,7 +21753,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="3">
         <v>470</v>
       </c>
@@ -21782,7 +21785,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="3">
         <v>468</v>
       </c>
@@ -21814,7 +21817,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="3">
         <v>234</v>
       </c>
@@ -21846,7 +21849,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="3">
         <v>532</v>
       </c>
@@ -21878,7 +21881,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="3">
         <v>533</v>
       </c>
@@ -21910,7 +21913,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="3">
         <v>666</v>
       </c>
@@ -21939,7 +21942,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="3">
         <v>430</v>
       </c>
@@ -21968,7 +21971,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="3">
         <v>256</v>
       </c>
@@ -22000,7 +22003,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="3">
         <v>191</v>
       </c>
@@ -22032,7 +22035,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="3">
         <v>194</v>
       </c>
@@ -22061,7 +22064,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="3">
         <v>373</v>
       </c>
@@ -22090,7 +22093,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="3">
         <v>505</v>
       </c>
@@ -22119,7 +22122,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="3">
         <v>412</v>
       </c>
@@ -22148,7 +22151,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="3">
         <v>235</v>
       </c>
@@ -22177,7 +22180,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="3">
         <v>286</v>
       </c>
@@ -22206,7 +22209,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="3">
         <v>427</v>
       </c>
@@ -22235,7 +22238,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="3">
         <v>147</v>
       </c>
@@ -22264,7 +22267,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="3">
         <v>424</v>
       </c>
@@ -22293,7 +22296,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="3">
         <v>473</v>
       </c>
@@ -22322,7 +22325,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="3">
         <v>826</v>
       </c>
@@ -22354,7 +22357,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="3">
         <v>335</v>
       </c>
@@ -22383,7 +22386,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="3">
         <v>822</v>
       </c>
@@ -22412,7 +22415,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="3">
         <v>432</v>
       </c>
@@ -22441,7 +22444,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="3">
         <v>208</v>
       </c>
@@ -22470,7 +22473,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="3">
         <v>153</v>
       </c>
@@ -22502,7 +22505,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="3">
         <v>153</v>
       </c>
@@ -22522,7 +22525,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="3">
         <v>552</v>
       </c>
@@ -22554,7 +22557,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="3">
         <v>552</v>
       </c>
@@ -22574,7 +22577,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="3">
         <v>340</v>
       </c>
@@ -22606,7 +22609,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="3">
         <v>340</v>
       </c>
@@ -22626,7 +22629,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="3">
         <v>125</v>
       </c>
@@ -22655,7 +22658,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="3">
         <v>159</v>
       </c>
@@ -22684,7 +22687,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="3">
         <v>607</v>
       </c>
@@ -22716,7 +22719,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="3">
         <v>292</v>
       </c>
@@ -22748,7 +22751,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="3">
         <v>472</v>
       </c>
@@ -22780,7 +22783,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="3">
         <v>615</v>
       </c>
@@ -22812,7 +22815,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="3">
         <v>414</v>
       </c>
@@ -22841,7 +22844,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="3">
         <v>616</v>
       </c>
@@ -22870,7 +22873,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="3">
         <v>435</v>
       </c>
@@ -22902,7 +22905,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="3">
         <v>720</v>
       </c>
@@ -22931,7 +22934,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="3">
         <v>451</v>
       </c>
@@ -22963,7 +22966,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="3">
         <v>279</v>
       </c>
@@ -22995,7 +22998,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="3">
         <v>609</v>
       </c>
@@ -23027,7 +23030,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="3">
         <v>199</v>
       </c>
@@ -23056,7 +23059,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="3">
         <v>447</v>
       </c>
@@ -23088,7 +23091,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="3">
         <v>100</v>
       </c>
@@ -23117,7 +23120,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="3">
         <v>386</v>
       </c>
@@ -23146,7 +23149,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="3">
         <v>500</v>
       </c>
@@ -23175,7 +23178,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="3">
         <v>592</v>
       </c>
@@ -23204,7 +23207,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="3">
         <v>498</v>
       </c>
@@ -23233,7 +23236,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="3">
         <v>418</v>
       </c>
@@ -23262,7 +23265,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="3">
         <v>426</v>
       </c>
@@ -23291,7 +23294,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" s="3">
         <v>433</v>
       </c>
@@ -23323,7 +23326,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="3">
         <v>268</v>
       </c>
@@ -23355,7 +23358,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="3">
         <v>163</v>
       </c>
@@ -23387,7 +23390,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="3">
         <v>413</v>
       </c>
@@ -23419,7 +23422,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="3">
         <v>561</v>
       </c>
@@ -23445,7 +23448,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="3">
         <v>561</v>
       </c>
@@ -23465,7 +23468,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="3">
         <v>802</v>
       </c>
@@ -23494,7 +23497,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="3">
         <v>803</v>
       </c>
@@ -23523,7 +23526,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="3">
         <v>293</v>
       </c>
@@ -23555,7 +23558,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="3">
         <v>293</v>
       </c>
@@ -23575,7 +23578,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="3">
         <v>455</v>
       </c>
@@ -23610,7 +23613,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="3">
         <v>455</v>
       </c>
@@ -23630,7 +23633,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="3">
         <v>804</v>
       </c>
@@ -23662,7 +23665,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="3">
         <v>804</v>
       </c>
@@ -23682,7 +23685,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="3">
         <v>289</v>
       </c>
@@ -23717,7 +23720,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="3">
         <v>289</v>
       </c>
@@ -23737,7 +23740,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="3">
         <v>684</v>
       </c>
@@ -23769,7 +23772,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="3">
         <v>823</v>
       </c>
@@ -23789,7 +23792,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="3">
         <v>225</v>
       </c>
@@ -23821,7 +23824,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="3">
         <v>528</v>
       </c>
@@ -23850,7 +23853,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="3">
         <v>307</v>
       </c>
@@ -23879,7 +23882,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="3">
         <v>484</v>
       </c>
@@ -23908,7 +23911,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="3">
         <v>160</v>
       </c>
@@ -23937,7 +23940,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="3">
         <v>66</v>
       </c>
@@ -23969,7 +23972,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="3">
         <v>187</v>
       </c>
@@ -24001,7 +24004,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="3">
         <v>469</v>
       </c>
@@ -24030,7 +24033,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="3">
         <v>823</v>
       </c>
@@ -24065,7 +24068,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="3">
         <v>823</v>
       </c>
@@ -24085,7 +24088,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="3">
         <v>67</v>
       </c>
@@ -24117,7 +24120,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="3">
         <v>266</v>
       </c>
@@ -24149,7 +24152,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="3">
         <v>608</v>
       </c>
@@ -24181,7 +24184,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="3">
         <v>267</v>
       </c>
@@ -24210,7 +24213,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="3">
         <v>434</v>
       </c>
@@ -24239,7 +24242,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="3">
         <v>30</v>
       </c>
@@ -24268,7 +24271,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="3">
         <v>273</v>
       </c>
@@ -24300,7 +24303,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="3">
         <v>417</v>
       </c>
@@ -24332,7 +24335,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="3">
         <v>821</v>
       </c>
@@ -24364,7 +24367,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="3">
         <v>847</v>
       </c>
@@ -24396,7 +24399,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="3">
         <v>573</v>
       </c>
@@ -24428,7 +24431,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="3">
         <v>221</v>
       </c>
@@ -24460,7 +24463,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="3">
         <v>546</v>
       </c>
@@ -24489,7 +24492,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="3">
         <v>408</v>
       </c>
@@ -24518,7 +24521,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="3">
         <v>541</v>
       </c>
@@ -24547,7 +24550,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="3">
         <v>303</v>
       </c>
@@ -24576,7 +24579,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="3">
         <v>476</v>
       </c>
@@ -24605,7 +24608,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="3">
         <v>410</v>
       </c>
@@ -24634,7 +24637,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="3">
         <v>550</v>
       </c>
@@ -24663,7 +24666,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="3">
         <v>227</v>
       </c>
@@ -24692,7 +24695,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="3">
         <v>590</v>
       </c>
@@ -24721,7 +24724,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="3">
         <v>251</v>
       </c>
@@ -24750,7 +24753,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="3">
         <v>425</v>
       </c>
@@ -24773,7 +24776,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="3">
         <v>34</v>
       </c>
@@ -24808,7 +24811,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="3">
         <v>34</v>
       </c>
@@ -24828,7 +24831,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="3">
         <v>477</v>
       </c>
@@ -24863,7 +24866,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="3">
         <v>477</v>
       </c>
@@ -24883,7 +24886,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="3">
         <v>350</v>
       </c>
@@ -24918,7 +24921,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="3">
         <v>350</v>
       </c>
@@ -24938,7 +24941,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="3">
         <v>411</v>
       </c>
@@ -24973,7 +24976,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="3">
         <v>411</v>
       </c>
@@ -24993,7 +24996,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="3">
         <v>436</v>
       </c>
@@ -25025,7 +25028,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="3">
         <v>436</v>
       </c>
@@ -25045,7 +25048,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="3">
         <v>155</v>
       </c>
@@ -25077,7 +25080,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="3">
         <v>155</v>
       </c>
@@ -25097,7 +25100,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="3">
         <v>175</v>
       </c>
@@ -25129,7 +25132,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" s="3">
         <v>175</v>
       </c>
@@ -25149,7 +25152,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="3">
         <v>543</v>
       </c>
@@ -25178,7 +25181,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="3">
         <v>536</v>
       </c>
@@ -25207,7 +25210,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="3">
         <v>431</v>
       </c>
@@ -25236,7 +25239,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="3">
         <v>117</v>
       </c>
@@ -25268,7 +25271,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="3">
         <v>443</v>
       </c>
@@ -25300,7 +25303,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="3">
         <v>548</v>
       </c>
@@ -25332,7 +25335,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="3">
         <v>617</v>
       </c>
@@ -25361,7 +25364,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="3">
         <v>380</v>
       </c>
@@ -25393,7 +25396,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="3">
         <v>380</v>
       </c>
@@ -25413,7 +25416,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="3">
         <v>68</v>
       </c>
@@ -25448,7 +25451,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="3">
         <v>68</v>
       </c>
@@ -25468,7 +25471,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="3">
         <v>278</v>
       </c>
@@ -25503,7 +25506,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="3">
         <v>278</v>
       </c>
@@ -25523,7 +25526,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="3">
         <v>270</v>
       </c>
@@ -25555,7 +25558,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="3">
         <v>270</v>
       </c>
@@ -25575,7 +25578,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="3">
         <v>99</v>
       </c>
@@ -25607,7 +25610,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="3">
         <v>99</v>
       </c>
@@ -25627,7 +25630,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" s="3">
         <v>209</v>
       </c>
@@ -25662,7 +25665,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="3">
         <v>209</v>
       </c>
@@ -25682,7 +25685,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="3">
         <v>450</v>
       </c>
@@ -25717,7 +25720,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="3">
         <v>450</v>
       </c>
@@ -25737,7 +25740,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="3">
         <v>409</v>
       </c>
@@ -25772,7 +25775,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="3">
         <v>409</v>
       </c>
@@ -25792,7 +25795,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="3">
         <v>220</v>
       </c>
@@ -25824,7 +25827,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="3">
         <v>220</v>
       </c>
@@ -25844,7 +25847,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="3">
         <v>429</v>
       </c>
@@ -25876,7 +25879,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="3">
         <v>429</v>
       </c>
@@ -25896,7 +25899,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="3">
         <v>474</v>
       </c>
@@ -25925,7 +25928,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="3">
         <v>596</v>
       </c>
@@ -25954,7 +25957,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="3">
         <v>302</v>
       </c>
@@ -25983,7 +25986,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="3">
         <v>300</v>
       </c>
@@ -26012,7 +26015,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="3">
         <v>859</v>
       </c>
@@ -26038,7 +26041,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="3">
         <v>859</v>
       </c>
@@ -26058,7 +26061,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="3">
         <v>838</v>
       </c>
@@ -26084,7 +26087,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="3">
         <v>838</v>
       </c>
@@ -26104,7 +26107,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="3">
         <v>441</v>
       </c>
@@ -26136,7 +26139,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="3">
         <v>422</v>
       </c>
@@ -26171,7 +26174,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="3">
         <v>422</v>
       </c>
@@ -26191,7 +26194,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="3">
         <v>51</v>
       </c>
@@ -26226,7 +26229,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="3">
         <v>51</v>
       </c>
@@ -26246,7 +26249,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="3">
         <v>503</v>
       </c>
@@ -26275,7 +26278,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="3">
         <v>166</v>
       </c>
@@ -26307,7 +26310,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="3">
         <v>166</v>
       </c>
@@ -26327,7 +26330,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="3">
         <v>342</v>
       </c>
@@ -26362,7 +26365,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="3">
         <v>342</v>
       </c>
@@ -26382,7 +26385,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="3">
         <v>179</v>
       </c>
@@ -26411,7 +26414,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="3">
         <v>497</v>
       </c>
@@ -26440,7 +26443,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="3">
         <v>737</v>
       </c>
@@ -26469,7 +26472,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="3">
         <v>28</v>
       </c>
@@ -26501,7 +26504,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="3">
         <v>584</v>
       </c>
@@ -26530,7 +26533,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="3">
         <v>583</v>
       </c>
@@ -26559,7 +26562,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="3">
         <v>846</v>
       </c>
@@ -26591,7 +26594,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="3">
         <v>14</v>
       </c>
@@ -26623,7 +26626,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="3">
         <v>597</v>
       </c>
@@ -26652,7 +26655,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="3">
         <v>318</v>
       </c>
@@ -26681,7 +26684,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="3">
         <v>523</v>
       </c>
@@ -26710,7 +26713,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="3">
         <v>601</v>
       </c>
@@ -26739,7 +26742,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="3">
         <v>0</v>
       </c>
@@ -26777,7 +26780,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="3">
         <v>0</v>
       </c>
@@ -26797,7 +26800,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="3">
         <v>506</v>
       </c>
@@ -26832,7 +26835,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="3">
         <v>506</v>
       </c>
@@ -26849,7 +26852,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="3">
         <v>791</v>
       </c>
@@ -26878,7 +26881,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="3">
         <v>26</v>
       </c>
@@ -26907,7 +26910,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="3">
         <v>585</v>
       </c>
@@ -26936,7 +26939,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="3">
         <v>169</v>
       </c>
@@ -26965,7 +26968,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="3">
         <v>567</v>
       </c>
@@ -26994,7 +26997,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="3">
         <v>254</v>
       </c>
@@ -27023,7 +27026,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="3">
         <v>568</v>
       </c>
@@ -27052,7 +27055,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="3">
         <v>569</v>
       </c>
@@ -27084,7 +27087,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="3">
         <v>569</v>
       </c>
@@ -27104,7 +27107,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="3">
         <v>715</v>
       </c>
@@ -27136,7 +27139,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="3">
         <v>715</v>
       </c>
@@ -27156,7 +27159,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="3">
         <v>483</v>
       </c>
@@ -27188,7 +27191,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="3">
         <v>483</v>
       </c>
@@ -27208,7 +27211,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="3">
         <v>557</v>
       </c>
@@ -27240,7 +27243,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="3">
         <v>557</v>
       </c>
@@ -27260,7 +27263,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="3">
         <v>385</v>
       </c>
@@ -27295,7 +27298,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" s="3">
         <v>385</v>
       </c>
@@ -27315,7 +27318,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="3">
         <v>127</v>
       </c>
@@ -27350,7 +27353,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="3">
         <v>127</v>
       </c>
@@ -27370,7 +27373,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="3">
         <v>420</v>
       </c>
@@ -27402,7 +27405,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="3">
         <v>420</v>
       </c>
@@ -27422,7 +27425,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="3">
         <v>831</v>
       </c>
@@ -27460,7 +27463,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" s="3">
         <v>831</v>
       </c>
@@ -27480,7 +27483,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" s="3">
         <v>554</v>
       </c>
@@ -27512,7 +27515,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" s="3">
         <v>554</v>
       </c>
@@ -27532,7 +27535,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="3">
         <v>98</v>
       </c>
@@ -27561,7 +27564,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="3">
         <v>295</v>
       </c>
@@ -27590,7 +27593,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="3">
         <v>343</v>
       </c>
@@ -27619,7 +27622,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="3">
         <v>504</v>
       </c>
@@ -27648,7 +27651,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="3">
         <v>283</v>
       </c>
@@ -27680,7 +27683,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="3">
         <v>283</v>
       </c>
@@ -27700,7 +27703,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="3">
         <v>389</v>
       </c>
@@ -27729,7 +27732,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="3">
         <v>558</v>
       </c>
@@ -27761,7 +27764,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="3">
         <v>558</v>
       </c>
@@ -27781,7 +27784,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" s="3">
         <v>29</v>
       </c>
@@ -27810,7 +27813,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" s="3">
         <v>122</v>
       </c>
@@ -27839,7 +27842,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="3">
         <v>482</v>
       </c>
@@ -27871,7 +27874,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="3">
         <v>482</v>
       </c>
@@ -27891,7 +27894,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="3">
         <v>762</v>
       </c>
@@ -27920,7 +27923,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="3">
         <v>620</v>
       </c>
@@ -27952,7 +27955,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="3">
         <v>415</v>
       </c>
@@ -27984,7 +27987,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="3">
         <v>754</v>
       </c>
@@ -28016,7 +28019,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="3">
         <v>164</v>
       </c>
@@ -28048,7 +28051,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="3">
         <v>146</v>
       </c>
@@ -28077,7 +28080,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="3">
         <v>83</v>
       </c>
@@ -28106,7 +28109,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="3">
         <v>494</v>
       </c>
@@ -28138,7 +28141,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="3">
         <v>740</v>
       </c>
@@ -28170,7 +28173,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="3">
         <v>524</v>
       </c>
@@ -28199,7 +28202,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" s="3">
         <v>341</v>
       </c>
@@ -28228,7 +28231,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="3">
         <v>69</v>
       </c>
@@ -28257,7 +28260,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" s="3">
         <v>172</v>
       </c>
@@ -28286,7 +28289,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" s="3">
         <v>407</v>
       </c>
@@ -28315,7 +28318,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" s="3">
         <v>337</v>
       </c>
@@ -28344,7 +28347,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" s="3">
         <v>736</v>
       </c>
@@ -28373,7 +28376,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" s="3">
         <v>329</v>
       </c>
@@ -28402,7 +28405,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" s="3">
         <v>612</v>
       </c>
@@ -28431,7 +28434,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" s="3">
         <v>739</v>
       </c>
@@ -28460,7 +28463,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" s="3">
         <v>840</v>
       </c>
@@ -28489,7 +28492,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" s="3">
         <v>103</v>
       </c>
@@ -28521,7 +28524,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" s="3">
         <v>59</v>
       </c>
@@ -28550,7 +28553,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" s="3">
         <v>158</v>
       </c>
@@ -28579,7 +28582,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" s="3">
         <v>839</v>
       </c>
@@ -28608,7 +28611,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" s="3">
         <v>738</v>
       </c>
@@ -28637,7 +28640,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" s="3">
         <v>259</v>
       </c>
@@ -28666,7 +28669,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="3">
         <v>555</v>
       </c>
@@ -28698,7 +28701,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" s="3">
         <v>277</v>
       </c>
@@ -28730,7 +28733,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" s="3">
         <v>480</v>
       </c>
@@ -28762,7 +28765,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" s="3">
         <v>760</v>
       </c>
@@ -28794,7 +28797,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" s="3">
         <v>84</v>
       </c>
@@ -28826,7 +28829,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" s="3">
         <v>626</v>
       </c>
@@ -28858,7 +28861,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" s="3">
         <v>110</v>
       </c>
@@ -28890,7 +28893,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" s="3">
         <v>336</v>
       </c>
@@ -28922,7 +28925,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" s="3">
         <v>168</v>
       </c>
@@ -28951,7 +28954,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" s="3">
         <v>757</v>
       </c>
@@ -28980,7 +28983,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" s="3">
         <v>790</v>
       </c>
@@ -29012,7 +29015,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="3">
         <v>237</v>
       </c>
@@ -29044,7 +29047,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" s="3">
         <v>280</v>
       </c>
@@ -29076,7 +29079,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" s="3">
         <v>177</v>
       </c>
@@ -29108,7 +29111,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" s="3">
         <v>598</v>
       </c>
@@ -29140,7 +29143,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" s="3">
         <v>519</v>
       </c>
@@ -29172,7 +29175,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" s="3">
         <v>4</v>
       </c>
@@ -29204,7 +29207,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" s="3">
         <v>572</v>
       </c>
@@ -29233,7 +29236,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="3">
         <v>438</v>
       </c>
@@ -29265,7 +29268,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" s="3">
         <v>748</v>
       </c>
@@ -29297,7 +29300,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" s="3">
         <v>116</v>
       </c>
@@ -29329,7 +29332,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" s="3">
         <v>338</v>
       </c>
@@ -29358,7 +29361,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" s="3">
         <v>106</v>
       </c>
@@ -29390,7 +29393,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" s="3">
         <v>285</v>
       </c>
@@ -29419,7 +29422,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" s="3">
         <v>317</v>
       </c>
@@ -29448,7 +29451,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" s="3">
         <v>515</v>
       </c>
@@ -29477,7 +29480,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" s="3">
         <v>766</v>
       </c>
@@ -29506,7 +29509,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" s="3">
         <v>442</v>
       </c>
@@ -29535,7 +29538,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" s="3">
         <v>319</v>
       </c>
@@ -29564,7 +29567,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" s="3">
         <v>282</v>
       </c>
@@ -29593,7 +29596,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" s="3">
         <v>525</v>
       </c>
@@ -29622,7 +29625,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" s="3">
         <v>798</v>
       </c>
@@ -29651,7 +29654,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" s="3">
         <v>540</v>
       </c>
@@ -29680,7 +29683,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" s="3">
         <v>471</v>
       </c>
@@ -29709,7 +29712,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" s="3">
         <v>591</v>
       </c>
@@ -29738,7 +29741,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" s="3">
         <v>315</v>
       </c>
@@ -29770,7 +29773,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" s="3">
         <v>563</v>
       </c>
@@ -29802,7 +29805,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" s="3">
         <v>735</v>
       </c>
@@ -29834,7 +29837,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" s="3">
         <v>734</v>
       </c>
@@ -29866,7 +29869,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" s="3">
         <v>605</v>
       </c>
@@ -29898,7 +29901,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" s="3">
         <v>388</v>
       </c>
@@ -29930,7 +29933,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" s="3">
         <v>845</v>
       </c>
@@ -29959,7 +29962,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" s="3">
         <v>88</v>
       </c>
@@ -29988,7 +29991,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" s="3">
         <v>783</v>
       </c>
@@ -30017,7 +30020,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" s="3">
         <v>119</v>
       </c>
@@ -30046,7 +30049,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" s="3">
         <v>629</v>
       </c>
@@ -30075,7 +30078,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" s="3">
         <v>393</v>
       </c>
@@ -30104,7 +30107,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="866" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" s="3">
         <v>382</v>
       </c>
@@ -30133,7 +30136,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" s="3">
         <v>390</v>
       </c>
@@ -30162,7 +30165,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" s="3">
         <v>192</v>
       </c>
@@ -30191,7 +30194,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" s="3">
         <v>394</v>
       </c>
@@ -30220,7 +30223,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="870" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" s="3">
         <v>115</v>
       </c>
@@ -30252,7 +30255,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="871" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" s="3">
         <v>578</v>
       </c>
@@ -30284,7 +30287,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" s="3">
         <v>217</v>
       </c>
@@ -30316,7 +30319,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" s="3">
         <v>820</v>
       </c>
@@ -30348,7 +30351,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" s="3">
         <v>383</v>
       </c>
@@ -30380,7 +30383,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="875" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" s="3">
         <v>112</v>
       </c>
@@ -30412,7 +30415,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="876" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" s="3">
         <v>376</v>
       </c>
@@ -30444,7 +30447,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="877" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" s="3">
         <v>22</v>
       </c>
@@ -30476,7 +30479,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="878" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" s="3">
         <v>395</v>
       </c>
@@ -30508,7 +30511,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="879" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" s="3">
         <v>181</v>
       </c>
@@ -30540,7 +30543,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="880" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" s="3">
         <v>261</v>
       </c>
@@ -30572,7 +30575,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="881" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" s="3">
         <v>102</v>
       </c>
@@ -30601,7 +30604,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" s="3">
         <v>493</v>
       </c>
@@ -30630,7 +30633,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" s="3">
         <v>843</v>
       </c>
@@ -30659,7 +30662,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" s="3">
         <v>768</v>
       </c>
@@ -30688,7 +30691,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="885" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" s="3">
         <v>625</v>
       </c>
@@ -30717,7 +30720,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="886" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" s="3">
         <v>780</v>
       </c>
@@ -30746,7 +30749,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="887" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" s="3">
         <v>486</v>
       </c>
@@ -30775,7 +30778,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" s="3">
         <v>487</v>
       </c>
@@ -30804,7 +30807,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" s="3">
         <v>829</v>
       </c>
@@ -30833,7 +30836,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" s="3">
         <v>764</v>
       </c>
@@ -30865,7 +30868,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" s="3">
         <v>713</v>
       </c>
@@ -30897,7 +30900,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="892" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" s="3">
         <v>352</v>
       </c>
@@ -30929,7 +30932,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="893" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" s="3">
         <v>19</v>
       </c>
@@ -30961,7 +30964,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" s="3">
         <v>454</v>
       </c>
@@ -30990,7 +30993,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="895" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" s="3">
         <v>55</v>
       </c>
@@ -31022,7 +31025,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="896" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" s="3">
         <v>705</v>
       </c>
@@ -31051,7 +31054,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="897" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" s="3">
         <v>151</v>
       </c>
@@ -31077,7 +31080,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="898" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" s="3">
         <v>784</v>
       </c>
@@ -31103,7 +31106,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="899" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" s="3">
         <v>806</v>
       </c>
@@ -31132,7 +31135,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="900" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" s="3">
         <v>806</v>
       </c>
@@ -31152,7 +31155,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="901" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" s="3">
         <v>10</v>
       </c>
@@ -31184,7 +31187,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="902" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" s="3">
         <v>707</v>
       </c>
@@ -31213,7 +31216,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="903" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" s="3">
         <v>128</v>
       </c>
@@ -31242,7 +31245,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="904" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" s="3">
         <v>12</v>
       </c>
@@ -31271,7 +31274,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="905" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" s="3">
         <v>538</v>
       </c>
@@ -31303,7 +31306,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="906" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" s="3">
         <v>538</v>
       </c>
@@ -31323,7 +31326,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="907" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" s="3">
         <v>718</v>
       </c>
@@ -31352,7 +31355,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="908" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" s="3">
         <v>351</v>
       </c>
@@ -31381,7 +31384,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="909" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" s="3">
         <v>328</v>
       </c>
@@ -31410,7 +31413,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="910" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" s="3">
         <v>322</v>
       </c>
@@ -31439,7 +31442,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="911" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" s="3">
         <v>562</v>
       </c>
@@ -31468,7 +31471,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="912" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" s="3">
         <v>729</v>
       </c>
@@ -31497,7 +31500,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="913" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" s="3">
         <v>61</v>
       </c>
@@ -31526,7 +31529,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="914" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" s="3">
         <v>121</v>
       </c>
@@ -31555,7 +31558,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="915" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" s="3">
         <v>851</v>
       </c>
@@ -31587,7 +31590,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="916" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A916" s="3">
         <v>851</v>
       </c>
@@ -31607,7 +31610,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="917" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A917" s="3">
         <v>529</v>
       </c>
@@ -31636,7 +31639,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="918" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A918" s="3">
         <v>38</v>
       </c>
@@ -31668,7 +31671,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="919" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A919" s="3">
         <v>801</v>
       </c>
@@ -31700,7 +31703,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="920" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A920" s="3">
         <v>782</v>
       </c>
@@ -31746,49 +31749,49 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>1190</v>
       </c>

--- a/GL_nais_einheiten_unique_joined_mf_Version26112024.xlsx
+++ b/GL_nais_einheiten_unique_joined_mf_Version26112024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B78DAB-8906-437E-89C3-7FF900C024F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB03650-F42F-403B-BACD-7AD47B46BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4376,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N920"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -31733,6 +31733,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N920" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M920">
     <sortCondition ref="C2:C920"/>
   </sortState>
